--- a/0CristalEO/data.xlsx
+++ b/0CristalEO/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhyM\Documents\0Files\ModernExperiment\0CristalEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhyM\Documents\0Files\ModernExperimentI\0CristalEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B5074-5DE4-4445-AD49-1414371D8AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44198F2C-14DE-48DC-9463-28F23F647ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" activeTab="1" xr2:uid="{67DEFCF1-4CD4-48D8-988F-53A6C94A6D49}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" activeTab="2" xr2:uid="{67DEFCF1-4CD4-48D8-988F-53A6C94A6D49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="垂直" sheetId="2" r:id="rId2"/>
-    <sheet name="平行" sheetId="3" r:id="rId3"/>
+    <sheet name="OriginalData" sheetId="1" r:id="rId1"/>
+    <sheet name="Orth" sheetId="2" r:id="rId2"/>
+    <sheet name="Para" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="2">
   <si>
     <t>uw</t>
   </si>
@@ -48,12 +48,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +146,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8469048076307535E-2"/>
-          <c:y val="6.4710627142569074E-2"/>
+          <c:y val="1.2280701754385972E-2"/>
           <c:w val="0.93957973241149739"/>
           <c:h val="0.87842656237843231"/>
         </c:manualLayout>
@@ -174,7 +181,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>垂直!$A$1:$A$148</c:f>
+              <c:f>Orth!$A$1:$A$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
@@ -627,7 +634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>垂直!$B$1:$B$148</c:f>
+              <c:f>Orth!$B$1:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
@@ -1318,6 +1325,471 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6021928239227563E-2"/>
+          <c:y val="0.10100201120780017"/>
+          <c:w val="0.9390855676875649"/>
+          <c:h val="0.8213776388499745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Orth!$X$1:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-226</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Orth!$Y$1:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.3500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.41E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.57E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.73E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.81E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F241-4251-BEAB-1B5C598D4577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="229188415"/>
+        <c:axId val="53740703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="229188415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53740703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53740703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229188415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1349,7 +1821,558 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>平行!$A$1:$A$71</c:f>
+              <c:f>Orth!$AS$1:$AS$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Orth!$AT$1:$AT$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2DC-44A0-9E4A-F13EB142F305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458093759"/>
+        <c:axId val="229090543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458093759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229090543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="229090543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458093759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Para!$A$1:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -1571,7 +2594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>平行!$B$1:$B$71</c:f>
+              <c:f>Para!$B$1:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -1985,6 +3008,874 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Para!$T$1:$T$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Para!$U$1:$U$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2600000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A632-45D2-907F-94C849B4E3E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="239343071"/>
+        <c:axId val="52459967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239343071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52459967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52459967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239343071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Para!$AG$1:$AG$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>-166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-592</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Para!$AH$1:$AH$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0499999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AFC-4576-A89A-5952305D336B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458103759"/>
+        <c:axId val="228205503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458103759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228205503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="228205503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458103759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2065,6 +3956,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3097,20 +5148,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>405464</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>83620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7219</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>161223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3130,6 +7245,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238698</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>348866</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC70E09-5293-41ED-B687-6CA40E7FADB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>394771</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>119350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554CD073-B6EC-4B03-A192-1691203E8840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3171,6 +7358,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6286FAB-EFD8-4B31-96D3-05E6AA8DDF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026C2DF2-075C-4537-B594-C5E8A0EC984C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3476,743 +7735,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1BD6A-8A49-4A68-AF15-12900074D2E1}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E71" sqref="D1:E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1485</v>
       </c>
       <c r="B1">
         <v>0.222</v>
       </c>
-      <c r="D1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
         <v>1453</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1475</v>
       </c>
       <c r="B2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1423</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1465</v>
       </c>
       <c r="B3">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1395</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1455</v>
       </c>
       <c r="B4">
         <v>0.24</v>
       </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1373</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1446</v>
       </c>
       <c r="B5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D5">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1335</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1436</v>
       </c>
       <c r="B6">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D6">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1317</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1424</v>
       </c>
       <c r="B7">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D7">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1296</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1417</v>
       </c>
       <c r="B8">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D8">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1276</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1405</v>
       </c>
       <c r="B9">
         <v>0.23</v>
       </c>
-      <c r="D9">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1253</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1397</v>
       </c>
       <c r="B10">
         <v>0.23</v>
       </c>
-      <c r="D10">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>1244</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1385</v>
       </c>
       <c r="B11">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D11">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1238</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1373</v>
       </c>
       <c r="B12">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D12">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1228</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1366</v>
       </c>
       <c r="B13">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D13">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>1219</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1355</v>
       </c>
       <c r="B14">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D14">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1207</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1345</v>
       </c>
       <c r="B15">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D15">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>1198</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1335</v>
       </c>
       <c r="B16">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D16">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1178</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1325</v>
       </c>
       <c r="B17">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D17">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1147</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>6.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1314</v>
       </c>
       <c r="B18">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D18">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>1112</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>10.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1304</v>
       </c>
       <c r="B19">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D19">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>1067</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>15.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1294</v>
       </c>
       <c r="B20">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D20">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>1021</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>22.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1284</v>
       </c>
       <c r="B21">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D21">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>963</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>32.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1274</v>
       </c>
       <c r="B22">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D22">
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>922</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>40.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1264</v>
       </c>
       <c r="B23">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D23">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>875</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>50.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1254</v>
       </c>
       <c r="B24">
         <v>0.246</v>
       </c>
-      <c r="D24">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>788</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>70.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1245</v>
       </c>
       <c r="B25">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D25">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>734</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>83.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1234</v>
       </c>
       <c r="B26">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D26">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>663</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>106.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1224</v>
       </c>
       <c r="B27">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D27">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>601</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>126.9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1214</v>
       </c>
       <c r="B28">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D28">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>530</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>150.1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1204</v>
       </c>
       <c r="B29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D29">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>472</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>167.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1195</v>
       </c>
       <c r="B30">
         <v>0.24</v>
       </c>
-      <c r="D30">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>426</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>181.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1185</v>
       </c>
       <c r="B31">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D31">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>380</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1174</v>
       </c>
       <c r="B32">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D32">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>310</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1163</v>
       </c>
       <c r="B33">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D33">
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>256</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1156</v>
       </c>
       <c r="B34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D34">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>177</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1146</v>
       </c>
       <c r="B35">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D35">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>85</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1135</v>
       </c>
       <c r="B36">
         <v>0.24</v>
       </c>
-      <c r="D36">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1125</v>
       </c>
       <c r="B37">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D37">
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>-30</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1115</v>
       </c>
       <c r="B38">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D38">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>-72</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1104</v>
       </c>
       <c r="B39">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D39">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>-136</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1094</v>
       </c>
       <c r="B40">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D40">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>-166</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1084</v>
       </c>
       <c r="B41">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D41">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>-280</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1068</v>
       </c>
       <c r="B42">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D42">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>-329</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1046</v>
       </c>
       <c r="B43">
         <v>0.23</v>
       </c>
-      <c r="D43">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>-378</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1022</v>
       </c>
       <c r="B44">
         <v>0.22</v>
       </c>
-      <c r="D44">
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>-419</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>998</v>
       </c>
       <c r="B45">
         <v>0.22</v>
       </c>
-      <c r="D45">
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>-457</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>944</v>
       </c>
       <c r="B46">
         <v>0.215</v>
       </c>
-      <c r="D46">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>-477</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>891</v>
       </c>
       <c r="B47">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D47">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>-559</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>800</v>
       </c>
       <c r="B48">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D48">
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>-592</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>700</v>
       </c>
       <c r="B49">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D49">
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>-638</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>600</v>
       </c>
       <c r="B50">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D50">
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>-672</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>499</v>
       </c>
       <c r="B51">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D51">
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>-716</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>402</v>
       </c>
       <c r="B52">
         <v>6.3E-2</v>
       </c>
-      <c r="D52">
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>-742</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>299</v>
       </c>
@@ -4222,591 +8709,804 @@
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>-767</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>200</v>
       </c>
       <c r="B54">
         <v>24.2</v>
       </c>
-      <c r="D54">
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>-837</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>100</v>
       </c>
       <c r="B55">
         <v>12.5</v>
       </c>
-      <c r="D55">
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>-887</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>35</v>
       </c>
       <c r="B56">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D56">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>-967</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-21</v>
       </c>
       <c r="B57">
         <v>5.4</v>
       </c>
-      <c r="D57">
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>-1014</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-40</v>
       </c>
       <c r="B58">
         <v>4.7</v>
       </c>
-      <c r="D58">
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>-1057</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-50</v>
       </c>
       <c r="B59">
         <v>4.28</v>
       </c>
-      <c r="D59">
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>-1102</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-60</v>
       </c>
       <c r="B60">
         <v>3.9</v>
       </c>
-      <c r="D60">
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>-1149</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-71</v>
       </c>
       <c r="B61">
         <v>3.51</v>
       </c>
-      <c r="D61">
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>-1174</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-81</v>
       </c>
       <c r="B62">
         <v>3.15</v>
       </c>
-      <c r="D62">
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>-1194</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-89</v>
       </c>
       <c r="B63">
         <v>2.8</v>
       </c>
-      <c r="D63">
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>-1215</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-100</v>
       </c>
       <c r="B64">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D64">
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>-1241</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-105</v>
       </c>
       <c r="B65">
         <v>2.38</v>
       </c>
-      <c r="D65">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>-1261</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>24.3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-111</v>
       </c>
       <c r="B66">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D66">
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>-1286</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>19.2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-116</v>
       </c>
       <c r="B67">
         <v>2.15</v>
       </c>
-      <c r="D67">
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>-1328</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-119</v>
       </c>
       <c r="B68">
         <v>2.09</v>
       </c>
-      <c r="D68">
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>-1381</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>7.3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-122</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="D69">
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>-1419</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>4.2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-126</v>
       </c>
       <c r="B70">
         <v>1.94</v>
       </c>
-      <c r="D70">
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>-1463</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-130</v>
       </c>
       <c r="B71">
         <v>1.86</v>
       </c>
-      <c r="D71">
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>-1493</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>1.8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-134</v>
       </c>
       <c r="B72">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-138</v>
       </c>
       <c r="B73">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-143</v>
       </c>
       <c r="B74">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-147</v>
       </c>
       <c r="B75">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-151</v>
       </c>
       <c r="B76">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-156</v>
       </c>
       <c r="B77">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-161</v>
       </c>
       <c r="B78">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-166</v>
       </c>
       <c r="B79">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-170</v>
       </c>
       <c r="B80">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-173</v>
       </c>
       <c r="B81">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-178</v>
       </c>
       <c r="B82">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-182</v>
       </c>
       <c r="B83">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-186</v>
       </c>
       <c r="B84">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-192</v>
       </c>
       <c r="B85">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-196</v>
       </c>
       <c r="B86">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-200</v>
       </c>
       <c r="B87">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-205</v>
       </c>
       <c r="B88">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-211</v>
       </c>
       <c r="B89">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-216</v>
       </c>
       <c r="B90">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-221</v>
       </c>
       <c r="B91">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-226</v>
       </c>
       <c r="B92">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-231</v>
       </c>
       <c r="B93">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-235</v>
       </c>
       <c r="B94">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-242</v>
       </c>
       <c r="B95">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-247</v>
       </c>
       <c r="B96">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-251</v>
       </c>
       <c r="B97">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-255</v>
       </c>
       <c r="B98">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-261</v>
       </c>
       <c r="B99">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-266</v>
       </c>
       <c r="B100">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-271</v>
       </c>
       <c r="B101">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-277</v>
       </c>
       <c r="B102">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-285</v>
       </c>
       <c r="B103">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-298</v>
       </c>
       <c r="B104">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-312</v>
       </c>
       <c r="B105">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-323</v>
       </c>
       <c r="B106">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-341</v>
       </c>
       <c r="B107">
         <v>5.82</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-355</v>
       </c>
       <c r="B108">
         <v>6.82</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-375</v>
       </c>
       <c r="B109">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-406</v>
       </c>
       <c r="B110">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-433</v>
       </c>
       <c r="B111">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-463</v>
       </c>
       <c r="B112">
         <v>20.100000000000001</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -4816,6 +9516,9 @@
       <c r="B113">
         <v>26.9</v>
       </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
@@ -4824,6 +9527,9 @@
       <c r="B114">
         <v>45.4</v>
       </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
@@ -4832,6 +9538,9 @@
       <c r="B115">
         <v>65</v>
       </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
@@ -4840,6 +9549,9 @@
       <c r="B116">
         <v>82.8</v>
       </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
@@ -4848,6 +9560,9 @@
       <c r="B117">
         <v>107.2</v>
       </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
@@ -4856,6 +9571,9 @@
       <c r="B118">
         <v>128.19999999999999</v>
       </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
@@ -4864,6 +9582,9 @@
       <c r="B119">
         <v>159.80000000000001</v>
       </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -4872,6 +9593,9 @@
       <c r="B120">
         <v>196.8</v>
       </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -4891,6 +9615,9 @@
       <c r="B122">
         <v>0.20899999999999999</v>
       </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
@@ -4899,6 +9626,9 @@
       <c r="B123">
         <v>0.215</v>
       </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
@@ -4907,6 +9637,9 @@
       <c r="B124">
         <v>0.218</v>
       </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
@@ -4915,6 +9648,9 @@
       <c r="B125">
         <v>0.222</v>
       </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
@@ -4923,6 +9659,9 @@
       <c r="B126">
         <v>0.223</v>
       </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
@@ -4931,6 +9670,9 @@
       <c r="B127">
         <v>0.22500000000000001</v>
       </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
@@ -4939,165 +9681,228 @@
       <c r="B128">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-1256</v>
       </c>
       <c r="B129">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-1269</v>
       </c>
       <c r="B130">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>-1275</v>
       </c>
       <c r="B131">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>-1286</v>
       </c>
       <c r="B132">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>-1297</v>
       </c>
       <c r="B133">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>-1307</v>
       </c>
       <c r="B134">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>-1318</v>
       </c>
       <c r="B135">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>-1329</v>
       </c>
       <c r="B136">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>-1338</v>
       </c>
       <c r="B137">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>-1348</v>
       </c>
       <c r="B138">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>-1358</v>
       </c>
       <c r="B139">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>-1370</v>
       </c>
       <c r="B140">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>-1385</v>
       </c>
       <c r="B141">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>-1399</v>
       </c>
       <c r="B142">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>-1415</v>
       </c>
       <c r="B143">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>-1434</v>
       </c>
       <c r="B144">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>-1454</v>
       </c>
       <c r="B145">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>-1475</v>
       </c>
       <c r="B146">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>-1486</v>
       </c>
       <c r="B147">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>-1493</v>
       </c>
       <c r="B148">
         <v>0.25600000000000001</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5107,367 +9912,805 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8443B22C-2895-4AB9-8496-C67FF3C76002}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:AT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="T124" sqref="T124"/>
+    <sheetView topLeftCell="A84" zoomScale="88" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1485</v>
       </c>
       <c r="B1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X1" s="1">
+        <v>-196</v>
+      </c>
+      <c r="Y1">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>1254</v>
+      </c>
+      <c r="AT1">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1475</v>
       </c>
       <c r="B2">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>-186</v>
+      </c>
+      <c r="Y2">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AS2">
+        <v>1304</v>
+      </c>
+      <c r="AT2">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1465</v>
       </c>
       <c r="B3">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>-200</v>
+      </c>
+      <c r="Y3">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="AS3">
+        <v>1294</v>
+      </c>
+      <c r="AT3">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1455</v>
       </c>
       <c r="B4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>-182</v>
+      </c>
+      <c r="Y4">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="AS4">
+        <v>1264</v>
+      </c>
+      <c r="AT4">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1446</v>
       </c>
       <c r="B5">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>-205</v>
+      </c>
+      <c r="Y5">
+        <v>1.3700000000000001E-3</v>
+      </c>
+      <c r="AS5">
+        <v>1245</v>
+      </c>
+      <c r="AT5">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1436</v>
       </c>
       <c r="B6">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>-178</v>
+      </c>
+      <c r="Y6">
+        <v>1.3700000000000001E-3</v>
+      </c>
+      <c r="AS6">
+        <v>1436</v>
+      </c>
+      <c r="AT6">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1424</v>
       </c>
       <c r="B7">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>-173</v>
+      </c>
+      <c r="Y7">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="AS7">
+        <v>1424</v>
+      </c>
+      <c r="AT7">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1417</v>
       </c>
       <c r="B8">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>-192</v>
+      </c>
+      <c r="Y8">
+        <v>1.39E-3</v>
+      </c>
+      <c r="AS8">
+        <v>1314</v>
+      </c>
+      <c r="AT8">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1405</v>
       </c>
       <c r="B9">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>-170</v>
+      </c>
+      <c r="Y9">
+        <v>1.41E-3</v>
+      </c>
+      <c r="AS9">
+        <v>1274</v>
+      </c>
+      <c r="AT9">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1397</v>
       </c>
       <c r="B10">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>-211</v>
+      </c>
+      <c r="Y10">
+        <v>1.4199999999999998E-3</v>
+      </c>
+      <c r="AS10">
+        <v>1234</v>
+      </c>
+      <c r="AT10">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1385</v>
       </c>
       <c r="B11">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>-166</v>
+      </c>
+      <c r="Y11">
+        <v>1.4199999999999998E-3</v>
+      </c>
+      <c r="AS11">
+        <v>1446</v>
+      </c>
+      <c r="AT11">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1373</v>
       </c>
       <c r="B12">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>-161</v>
+      </c>
+      <c r="Y12">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="AS12">
+        <v>1417</v>
+      </c>
+      <c r="AT12">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1366</v>
       </c>
       <c r="B13">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>-216</v>
+      </c>
+      <c r="Y13">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="AS13">
+        <v>1284</v>
+      </c>
+      <c r="AT13">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1355</v>
       </c>
       <c r="B14">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>-221</v>
+      </c>
+      <c r="Y14">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="AS14">
+        <v>1224</v>
+      </c>
+      <c r="AT14">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1345</v>
       </c>
       <c r="B15">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>-156</v>
+      </c>
+      <c r="Y15">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="AS15">
+        <v>1214</v>
+      </c>
+      <c r="AT15">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1335</v>
       </c>
       <c r="B16">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>-226</v>
+      </c>
+      <c r="Y16">
+        <v>1.5400000000000001E-3</v>
+      </c>
+      <c r="AS16">
+        <v>1204</v>
+      </c>
+      <c r="AT16">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1325</v>
       </c>
       <c r="B17">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>-151</v>
+      </c>
+      <c r="Y17">
+        <v>1.57E-3</v>
+      </c>
+      <c r="AS17">
+        <v>1185</v>
+      </c>
+      <c r="AT17">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1314</v>
       </c>
       <c r="B18">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>-147</v>
+      </c>
+      <c r="Y18">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="AS18">
+        <v>1174</v>
+      </c>
+      <c r="AT18">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1304</v>
       </c>
       <c r="B19">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>-231</v>
+      </c>
+      <c r="Y19">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="AS19">
+        <v>1455</v>
+      </c>
+      <c r="AT19">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1294</v>
       </c>
       <c r="B20">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>-143</v>
+      </c>
+      <c r="Y20">
+        <v>1.65E-3</v>
+      </c>
+      <c r="AS20">
+        <v>1195</v>
+      </c>
+      <c r="AT20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1284</v>
       </c>
       <c r="B21">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>-235</v>
+      </c>
+      <c r="Y21">
+        <v>1.6699999999999998E-3</v>
+      </c>
+      <c r="AS21">
+        <v>1135</v>
+      </c>
+      <c r="AT21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1274</v>
       </c>
       <c r="B22">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>-138</v>
+      </c>
+      <c r="Y22">
+        <v>1.73E-3</v>
+      </c>
+      <c r="AS22">
+        <v>1325</v>
+      </c>
+      <c r="AT22">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1264</v>
       </c>
       <c r="B23">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>-242</v>
+      </c>
+      <c r="Y23">
+        <v>1.7800000000000001E-3</v>
+      </c>
+      <c r="AS23">
+        <v>1163</v>
+      </c>
+      <c r="AT23">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1254</v>
       </c>
       <c r="B24">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <v>-134</v>
+      </c>
+      <c r="Y24">
+        <v>1.81E-3</v>
+      </c>
+      <c r="AS24">
+        <v>1156</v>
+      </c>
+      <c r="AT24">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1245</v>
       </c>
       <c r="B25">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <v>-130</v>
+      </c>
+      <c r="Y25">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="AS25">
+        <v>1125</v>
+      </c>
+      <c r="AT25">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1234</v>
       </c>
       <c r="B26">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <v>-247</v>
+      </c>
+      <c r="Y26">
+        <v>1.9399999999999999E-3</v>
+      </c>
+      <c r="AS26">
+        <v>1146</v>
+      </c>
+      <c r="AT26">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1224</v>
       </c>
       <c r="B27">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>-126</v>
+      </c>
+      <c r="Y27">
+        <v>1.9399999999999999E-3</v>
+      </c>
+      <c r="AS27">
+        <v>1115</v>
+      </c>
+      <c r="AT27">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1214</v>
       </c>
       <c r="B28">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>-122</v>
+      </c>
+      <c r="Y28">
+        <v>2E-3</v>
+      </c>
+      <c r="AS28">
+        <v>1355</v>
+      </c>
+      <c r="AT28">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1204</v>
       </c>
       <c r="B29">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS29">
+        <v>1335</v>
+      </c>
+      <c r="AT29">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1195</v>
       </c>
       <c r="B30">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS30">
+        <v>1345</v>
+      </c>
+      <c r="AT30">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1185</v>
       </c>
       <c r="B31">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS31">
+        <v>1385</v>
+      </c>
+      <c r="AT31">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1174</v>
       </c>
       <c r="B32">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS32">
+        <v>1373</v>
+      </c>
+      <c r="AT32">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1163</v>
       </c>
       <c r="B33">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AH33">
+        <v>1254</v>
+      </c>
+      <c r="AS33">
+        <v>1104</v>
+      </c>
+      <c r="AT33">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1156</v>
       </c>
       <c r="B34">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AH34">
+        <v>196</v>
+      </c>
+      <c r="AS34">
+        <v>1084</v>
+      </c>
+      <c r="AT34">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1146</v>
       </c>
       <c r="B35">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS35">
+        <v>1068</v>
+      </c>
+      <c r="AT35">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1135</v>
       </c>
       <c r="B36">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS36">
+        <v>1465</v>
+      </c>
+      <c r="AT36">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1125</v>
       </c>
       <c r="B37">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS37">
+        <v>1366</v>
+      </c>
+      <c r="AT37">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1115</v>
       </c>
       <c r="B38">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS38">
+        <v>1094</v>
+      </c>
+      <c r="AT38">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1104</v>
       </c>
       <c r="B39">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS39">
+        <v>1405</v>
+      </c>
+      <c r="AT39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1094</v>
       </c>
       <c r="B40">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS40">
+        <v>1397</v>
+      </c>
+      <c r="AT40">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1084</v>
       </c>
       <c r="B41">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS41">
+        <v>1046</v>
+      </c>
+      <c r="AT41">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1068</v>
       </c>
       <c r="B42">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS42">
+        <v>1475</v>
+      </c>
+      <c r="AT42">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1046</v>
       </c>
       <c r="B43">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS43">
+        <v>1485</v>
+      </c>
+      <c r="AT43">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1022</v>
       </c>
       <c r="B44">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="AS44">
+        <v>1022</v>
+      </c>
+      <c r="AT44">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>998</v>
       </c>
@@ -5475,7 +10718,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>944</v>
       </c>
@@ -5483,7 +10726,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>891</v>
       </c>
@@ -5491,7 +10734,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>800</v>
       </c>
@@ -6578,6 +11821,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="AR1:AS149">
+    <sortCondition descending="1" ref="AR1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6585,51 +11831,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332DE154-4BD9-4D1C-8226-453DA61FD850}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1453</v>
       </c>
       <c r="B1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T1" s="1">
+        <v>1253</v>
+      </c>
+      <c r="U1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>-166</v>
+      </c>
+      <c r="AH1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1423</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>1276</v>
+      </c>
+      <c r="U2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG2">
+        <v>-136</v>
+      </c>
+      <c r="AH2">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1395</v>
       </c>
       <c r="B3">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>1244</v>
+      </c>
+      <c r="U3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG3">
+        <v>-280</v>
+      </c>
+      <c r="AH3">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1373</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B2:B31" si="0">C4/1000</f>
+        <f t="shared" ref="B4:B31" si="0">C4/1000</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="C4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>1238</v>
+      </c>
+      <c r="U4">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AG4">
+        <v>-329</v>
+      </c>
+      <c r="AH4">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1335</v>
       </c>
@@ -6640,8 +11934,20 @@
       <c r="C5">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>1296</v>
+      </c>
+      <c r="U5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-72</v>
+      </c>
+      <c r="AH5">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1317</v>
       </c>
@@ -6652,8 +11958,20 @@
       <c r="C6">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>1228</v>
+      </c>
+      <c r="U6">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AG6">
+        <v>-378</v>
+      </c>
+      <c r="AH6">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1296</v>
       </c>
@@ -6664,8 +11982,20 @@
       <c r="C7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>1219</v>
+      </c>
+      <c r="U7">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AG7">
+        <v>35</v>
+      </c>
+      <c r="AH7">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1276</v>
       </c>
@@ -6676,8 +12006,20 @@
       <c r="C8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>1317</v>
+      </c>
+      <c r="U8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-419</v>
+      </c>
+      <c r="AH8">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1253</v>
       </c>
@@ -6688,8 +12030,20 @@
       <c r="C9">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>1207</v>
+      </c>
+      <c r="U9">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AG9">
+        <v>85</v>
+      </c>
+      <c r="AH9">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1244</v>
       </c>
@@ -6700,8 +12054,20 @@
       <c r="C10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>1198</v>
+      </c>
+      <c r="U10">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="AG10">
+        <v>-30</v>
+      </c>
+      <c r="AH10">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1238</v>
       </c>
@@ -6712,8 +12078,20 @@
       <c r="C11">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>1335</v>
+      </c>
+      <c r="U11">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AG11">
+        <v>-457</v>
+      </c>
+      <c r="AH11">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1228</v>
       </c>
@@ -6724,8 +12102,20 @@
       <c r="C12">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>1178</v>
+      </c>
+      <c r="U12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AG12">
+        <v>-477</v>
+      </c>
+      <c r="AH12">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1219</v>
       </c>
@@ -6736,8 +12126,20 @@
       <c r="C13">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>1373</v>
+      </c>
+      <c r="U13">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AG13">
+        <v>177</v>
+      </c>
+      <c r="AH13">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1207</v>
       </c>
@@ -6748,8 +12150,20 @@
       <c r="C14">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>1147</v>
+      </c>
+      <c r="U14">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AG14">
+        <v>-559</v>
+      </c>
+      <c r="AH14">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1198</v>
       </c>
@@ -6760,8 +12174,20 @@
       <c r="C15">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>1395</v>
+      </c>
+      <c r="U15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG15">
+        <v>256</v>
+      </c>
+      <c r="AH15">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1178</v>
       </c>
@@ -6772,8 +12198,20 @@
       <c r="C16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>1112</v>
+      </c>
+      <c r="U16">
+        <v>1.03E-2</v>
+      </c>
+      <c r="AG16">
+        <v>-592</v>
+      </c>
+      <c r="AH16">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1147</v>
       </c>
@@ -6784,8 +12222,20 @@
       <c r="C17">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>1423</v>
+      </c>
+      <c r="U17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG17">
+        <v>310</v>
+      </c>
+      <c r="AH17">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1112</v>
       </c>
@@ -6796,8 +12246,20 @@
       <c r="C18">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>1067</v>
+      </c>
+      <c r="U18">
+        <v>1.55E-2</v>
+      </c>
+      <c r="AG18">
+        <v>-638</v>
+      </c>
+      <c r="AH18">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1067</v>
       </c>
@@ -6808,8 +12270,20 @@
       <c r="C19">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>1453</v>
+      </c>
+      <c r="U19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AG19">
+        <v>380</v>
+      </c>
+      <c r="AH19">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1021</v>
       </c>
@@ -6820,8 +12294,20 @@
       <c r="C20">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>1021</v>
+      </c>
+      <c r="U20">
+        <v>2.2600000000000002E-2</v>
+      </c>
+      <c r="AG20">
+        <v>426</v>
+      </c>
+      <c r="AH20">
+        <v>0.1812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>963</v>
       </c>
@@ -6832,8 +12318,14 @@
       <c r="C21">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG21">
+        <v>472</v>
+      </c>
+      <c r="AH21">
+        <v>0.1678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>922</v>
       </c>
@@ -6844,8 +12336,14 @@
       <c r="C22">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG22">
+        <v>530</v>
+      </c>
+      <c r="AH22">
+        <v>0.15009999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>875</v>
       </c>
@@ -6856,8 +12354,14 @@
       <c r="C23">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG23">
+        <v>601</v>
+      </c>
+      <c r="AH23">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>788</v>
       </c>
@@ -6868,8 +12372,14 @@
       <c r="C24">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG24">
+        <v>663</v>
+      </c>
+      <c r="AH24">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>734</v>
       </c>
@@ -6880,8 +12390,14 @@
       <c r="C25">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG25">
+        <v>734</v>
+      </c>
+      <c r="AH25">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>663</v>
       </c>
@@ -6892,8 +12408,17 @@
       <c r="C26">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AB26">
+        <v>1253</v>
+      </c>
+      <c r="AG26">
+        <v>788</v>
+      </c>
+      <c r="AH26">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>601</v>
       </c>
@@ -6904,8 +12429,17 @@
       <c r="C27">
         <v>126.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AB27">
+        <v>166</v>
+      </c>
+      <c r="AG27">
+        <v>875</v>
+      </c>
+      <c r="AH27">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>530</v>
       </c>
@@ -6916,8 +12450,14 @@
       <c r="C28">
         <v>150.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG28">
+        <v>922</v>
+      </c>
+      <c r="AH28">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>472</v>
       </c>
@@ -6928,8 +12468,14 @@
       <c r="C29">
         <v>167.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="AG29">
+        <v>963</v>
+      </c>
+      <c r="AH29">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>426</v>
       </c>
@@ -6941,7 +12487,7 @@
         <v>181.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>380</v>
       </c>
@@ -6953,7 +12499,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>310</v>
       </c>
@@ -7302,6 +12848,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="AF1:AG71">
+    <sortCondition descending="1" ref="AF1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/0CristalEO/data.xlsx
+++ b/0CristalEO/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhyM\Documents\0Files\ModernExperimentI\0CristalEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44198F2C-14DE-48DC-9463-28F23F647ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0DF53B-1252-4747-A7BF-AEF2F27D0BFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" activeTab="2" xr2:uid="{67DEFCF1-4CD4-48D8-988F-53A6C94A6D49}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" activeTab="1" xr2:uid="{67DEFCF1-4CD4-48D8-988F-53A6C94A6D49}"/>
   </bookViews>
   <sheets>
     <sheet name="OriginalData" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Orth!$X$1:$X$28</c:f>
+              <c:f>Orth!$T$1:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1459,7 +1459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Orth!$Y$1:$Y$28</c:f>
+              <c:f>Orth!$U$1:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1825,138 +1825,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
-                <c:pt idx="0">
-                  <c:v>1254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1436</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1314</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1274</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1234</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1446</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1417</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1214</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1204</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1185</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1174</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1455</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1195</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1135</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1325</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1163</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1156</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1146</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1115</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1355</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1335</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1345</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1373</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1465</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1094</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1405</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1397</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1475</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1485</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1022</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1966,138 +1834,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
-                <c:pt idx="0">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.22800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.222</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.22</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3085,7 +2821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Para!$T$1:$T$72</c:f>
+              <c:f>Para!$P$1:$P$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3154,7 +2890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Para!$U$1:$U$72</c:f>
+              <c:f>Para!$Q$1:$Q$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3492,7 +3228,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Para!$AG$1:$AG$72</c:f>
+              <c:f>Para!$AA$1:$AA$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3588,7 +3324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Para!$AH$1:$AH$72</c:f>
+              <c:f>Para!$AB$1:$AB$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -7216,16 +6952,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405464</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>83620</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>588344</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7219</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>161223</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190099</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7252,16 +6988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238698</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101905</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>55818</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>348866</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165251</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>165986</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7288,16 +7024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>394771</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>919</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>333811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>119350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>173517</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>58390</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7329,16 +7065,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7365,16 +7101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7401,16 +7137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9912,805 +9648,799 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8443B22C-2895-4AB9-8496-C67FF3C76002}">
-  <dimension ref="A1:AT148"/>
+  <dimension ref="A1:AK148"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="88" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ25" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1485</v>
       </c>
       <c r="B1">
         <v>0.222</v>
       </c>
-      <c r="X1" s="1">
+      <c r="T1" s="1">
         <v>-196</v>
       </c>
-      <c r="Y1">
+      <c r="U1">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1">
         <v>1254</v>
       </c>
-      <c r="AT1">
+      <c r="AK1">
         <v>0.246</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1475</v>
       </c>
       <c r="B2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="X2">
+      <c r="T2">
         <v>-186</v>
       </c>
-      <c r="Y2">
+      <c r="U2">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="AS2">
+      <c r="AJ2">
         <v>1304</v>
       </c>
-      <c r="AT2">
+      <c r="AK2">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1465</v>
       </c>
       <c r="B3">
         <v>0.23200000000000001</v>
       </c>
-      <c r="X3">
+      <c r="T3">
         <v>-200</v>
       </c>
-      <c r="Y3">
+      <c r="U3">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="AS3">
+      <c r="AJ3">
         <v>1294</v>
       </c>
-      <c r="AT3">
+      <c r="AK3">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1455</v>
       </c>
       <c r="B4">
         <v>0.24</v>
       </c>
-      <c r="X4">
+      <c r="T4">
         <v>-182</v>
       </c>
-      <c r="Y4">
+      <c r="U4">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="AS4">
+      <c r="AJ4">
         <v>1264</v>
       </c>
-      <c r="AT4">
+      <c r="AK4">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1446</v>
       </c>
       <c r="B5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="X5">
+      <c r="T5">
         <v>-205</v>
       </c>
-      <c r="Y5">
+      <c r="U5">
         <v>1.3700000000000001E-3</v>
       </c>
-      <c r="AS5">
+      <c r="AJ5">
         <v>1245</v>
       </c>
-      <c r="AT5">
+      <c r="AK5">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1436</v>
       </c>
       <c r="B6">
         <v>0.24299999999999999</v>
       </c>
-      <c r="X6">
+      <c r="T6">
         <v>-178</v>
       </c>
-      <c r="Y6">
+      <c r="U6">
         <v>1.3700000000000001E-3</v>
       </c>
-      <c r="AS6">
+      <c r="AJ6">
         <v>1436</v>
       </c>
-      <c r="AT6">
+      <c r="AK6">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1424</v>
       </c>
       <c r="B7">
         <v>0.24299999999999999</v>
       </c>
-      <c r="X7">
+      <c r="T7">
         <v>-173</v>
       </c>
-      <c r="Y7">
+      <c r="U7">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="AS7">
+      <c r="AJ7">
         <v>1424</v>
       </c>
-      <c r="AT7">
+      <c r="AK7">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1417</v>
       </c>
       <c r="B8">
         <v>0.24199999999999999</v>
       </c>
-      <c r="X8">
+      <c r="T8">
         <v>-192</v>
       </c>
-      <c r="Y8">
+      <c r="U8">
         <v>1.39E-3</v>
       </c>
-      <c r="AS8">
+      <c r="AJ8">
         <v>1314</v>
       </c>
-      <c r="AT8">
+      <c r="AK8">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1405</v>
       </c>
       <c r="B9">
         <v>0.23</v>
       </c>
-      <c r="X9">
+      <c r="T9">
         <v>-170</v>
       </c>
-      <c r="Y9">
+      <c r="U9">
         <v>1.41E-3</v>
       </c>
-      <c r="AS9">
+      <c r="AJ9">
         <v>1274</v>
       </c>
-      <c r="AT9">
+      <c r="AK9">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1397</v>
       </c>
       <c r="B10">
         <v>0.23</v>
       </c>
-      <c r="X10">
+      <c r="T10">
         <v>-211</v>
       </c>
-      <c r="Y10">
+      <c r="U10">
         <v>1.4199999999999998E-3</v>
       </c>
-      <c r="AS10">
+      <c r="AJ10">
         <v>1234</v>
       </c>
-      <c r="AT10">
+      <c r="AK10">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1385</v>
       </c>
       <c r="B11">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X11">
+      <c r="T11">
         <v>-166</v>
       </c>
-      <c r="Y11">
+      <c r="U11">
         <v>1.4199999999999998E-3</v>
       </c>
-      <c r="AS11">
+      <c r="AJ11">
         <v>1446</v>
       </c>
-      <c r="AT11">
+      <c r="AK11">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1373</v>
       </c>
       <c r="B12">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X12">
+      <c r="T12">
         <v>-161</v>
       </c>
-      <c r="Y12">
+      <c r="U12">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="AS12">
+      <c r="AJ12">
         <v>1417</v>
       </c>
-      <c r="AT12">
+      <c r="AK12">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1366</v>
       </c>
       <c r="B13">
         <v>0.23200000000000001</v>
       </c>
-      <c r="X13">
+      <c r="T13">
         <v>-216</v>
       </c>
-      <c r="Y13">
+      <c r="U13">
         <v>1.4599999999999999E-3</v>
       </c>
-      <c r="AS13">
+      <c r="AJ13">
         <v>1284</v>
       </c>
-      <c r="AT13">
+      <c r="AK13">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1355</v>
       </c>
       <c r="B14">
         <v>0.23499999999999999</v>
       </c>
-      <c r="X14">
+      <c r="T14">
         <v>-221</v>
       </c>
-      <c r="Y14">
+      <c r="U14">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="AS14">
+      <c r="AJ14">
         <v>1224</v>
       </c>
-      <c r="AT14">
+      <c r="AK14">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1345</v>
       </c>
       <c r="B15">
         <v>0.23400000000000001</v>
       </c>
-      <c r="X15">
+      <c r="T15">
         <v>-156</v>
       </c>
-      <c r="Y15">
+      <c r="U15">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="AS15">
+      <c r="AJ15">
         <v>1214</v>
       </c>
-      <c r="AT15">
+      <c r="AK15">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1335</v>
       </c>
       <c r="B16">
         <v>0.23499999999999999</v>
       </c>
-      <c r="X16">
+      <c r="T16">
         <v>-226</v>
       </c>
-      <c r="Y16">
+      <c r="U16">
         <v>1.5400000000000001E-3</v>
       </c>
-      <c r="AS16">
+      <c r="AJ16">
         <v>1204</v>
       </c>
-      <c r="AT16">
+      <c r="AK16">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1325</v>
       </c>
       <c r="B17">
         <v>0.23799999999999999</v>
       </c>
-      <c r="X17">
+      <c r="T17">
         <v>-151</v>
       </c>
-      <c r="Y17">
+      <c r="U17">
         <v>1.57E-3</v>
       </c>
-      <c r="AS17">
+      <c r="AJ17">
         <v>1185</v>
       </c>
-      <c r="AT17">
+      <c r="AK17">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1314</v>
       </c>
       <c r="B18">
         <v>0.24299999999999999</v>
       </c>
-      <c r="X18">
+      <c r="T18">
         <v>-147</v>
       </c>
-      <c r="Y18">
+      <c r="U18">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="AS18">
+      <c r="AJ18">
         <v>1174</v>
       </c>
-      <c r="AT18">
+      <c r="AK18">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1304</v>
       </c>
       <c r="B19">
         <v>0.24399999999999999</v>
       </c>
-      <c r="X19">
+      <c r="T19">
         <v>-231</v>
       </c>
-      <c r="Y19">
+      <c r="U19">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="AS19">
+      <c r="AJ19">
         <v>1455</v>
       </c>
-      <c r="AT19">
+      <c r="AK19">
         <v>0.24</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1294</v>
       </c>
       <c r="B20">
         <v>0.24399999999999999</v>
       </c>
-      <c r="X20">
+      <c r="T20">
         <v>-143</v>
       </c>
-      <c r="Y20">
+      <c r="U20">
         <v>1.65E-3</v>
       </c>
-      <c r="AS20">
+      <c r="AJ20">
         <v>1195</v>
       </c>
-      <c r="AT20">
+      <c r="AK20">
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1284</v>
       </c>
       <c r="B21">
         <v>0.24199999999999999</v>
       </c>
-      <c r="X21">
+      <c r="T21">
         <v>-235</v>
       </c>
-      <c r="Y21">
+      <c r="U21">
         <v>1.6699999999999998E-3</v>
       </c>
-      <c r="AS21">
+      <c r="AJ21">
         <v>1135</v>
       </c>
-      <c r="AT21">
+      <c r="AK21">
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1274</v>
       </c>
       <c r="B22">
         <v>0.24299999999999999</v>
       </c>
-      <c r="X22">
+      <c r="T22">
         <v>-138</v>
       </c>
-      <c r="Y22">
+      <c r="U22">
         <v>1.73E-3</v>
       </c>
-      <c r="AS22">
+      <c r="AJ22">
         <v>1325</v>
       </c>
-      <c r="AT22">
+      <c r="AK22">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1264</v>
       </c>
       <c r="B23">
         <v>0.24399999999999999</v>
       </c>
-      <c r="X23">
+      <c r="T23">
         <v>-242</v>
       </c>
-      <c r="Y23">
+      <c r="U23">
         <v>1.7800000000000001E-3</v>
       </c>
-      <c r="AS23">
+      <c r="AJ23">
         <v>1163</v>
       </c>
-      <c r="AT23">
+      <c r="AK23">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1254</v>
       </c>
       <c r="B24">
         <v>0.246</v>
       </c>
-      <c r="X24">
+      <c r="T24">
         <v>-134</v>
       </c>
-      <c r="Y24">
+      <c r="U24">
         <v>1.81E-3</v>
       </c>
-      <c r="AS24">
+      <c r="AJ24">
         <v>1156</v>
       </c>
-      <c r="AT24">
+      <c r="AK24">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1245</v>
       </c>
       <c r="B25">
         <v>0.24399999999999999</v>
       </c>
-      <c r="X25">
+      <c r="T25">
         <v>-130</v>
       </c>
-      <c r="Y25">
+      <c r="U25">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="AS25">
+      <c r="AJ25">
         <v>1125</v>
       </c>
-      <c r="AT25">
+      <c r="AK25">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1234</v>
       </c>
       <c r="B26">
         <v>0.24299999999999999</v>
       </c>
-      <c r="X26">
+      <c r="T26">
         <v>-247</v>
       </c>
-      <c r="Y26">
+      <c r="U26">
         <v>1.9399999999999999E-3</v>
       </c>
-      <c r="AS26">
+      <c r="AJ26">
         <v>1146</v>
       </c>
-      <c r="AT26">
+      <c r="AK26">
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1224</v>
       </c>
       <c r="B27">
         <v>0.24199999999999999</v>
       </c>
-      <c r="X27">
+      <c r="T27">
         <v>-126</v>
       </c>
-      <c r="Y27">
+      <c r="U27">
         <v>1.9399999999999999E-3</v>
       </c>
-      <c r="AS27">
+      <c r="AJ27">
         <v>1115</v>
       </c>
-      <c r="AT27">
+      <c r="AK27">
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1214</v>
       </c>
       <c r="B28">
         <v>0.24099999999999999</v>
       </c>
-      <c r="X28">
+      <c r="T28">
         <v>-122</v>
       </c>
-      <c r="Y28">
+      <c r="U28">
         <v>2E-3</v>
       </c>
-      <c r="AS28">
+      <c r="AJ28">
         <v>1355</v>
       </c>
-      <c r="AT28">
+      <c r="AK28">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1204</v>
       </c>
       <c r="B29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="AS29">
+      <c r="AJ29">
         <v>1335</v>
       </c>
-      <c r="AT29">
+      <c r="AK29">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1195</v>
       </c>
       <c r="B30">
         <v>0.24</v>
       </c>
-      <c r="AS30">
+      <c r="AJ30">
         <v>1345</v>
       </c>
-      <c r="AT30">
+      <c r="AK30">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1185</v>
       </c>
       <c r="B31">
         <v>0.24099999999999999</v>
       </c>
-      <c r="AS31">
+      <c r="AJ31">
         <v>1385</v>
       </c>
-      <c r="AT31">
+      <c r="AK31">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1174</v>
       </c>
       <c r="B32">
         <v>0.24099999999999999</v>
       </c>
-      <c r="AS32">
+      <c r="AJ32">
         <v>1373</v>
       </c>
-      <c r="AT32">
+      <c r="AK32">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1163</v>
       </c>
       <c r="B33">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AH33">
-        <v>1254</v>
-      </c>
-      <c r="AS33">
+      <c r="AJ33">
         <v>1104</v>
       </c>
-      <c r="AT33">
+      <c r="AK33">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1156</v>
       </c>
       <c r="B34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AH34">
-        <v>196</v>
-      </c>
-      <c r="AS34">
+      <c r="AJ34">
         <v>1084</v>
       </c>
-      <c r="AT34">
+      <c r="AK34">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1146</v>
       </c>
       <c r="B35">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AS35">
+      <c r="AJ35">
         <v>1068</v>
       </c>
-      <c r="AT35">
+      <c r="AK35">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1135</v>
       </c>
       <c r="B36">
         <v>0.24</v>
       </c>
-      <c r="AS36">
+      <c r="AJ36">
         <v>1465</v>
       </c>
-      <c r="AT36">
+      <c r="AK36">
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1125</v>
       </c>
       <c r="B37">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AS37">
+      <c r="AJ37">
         <v>1366</v>
       </c>
-      <c r="AT37">
+      <c r="AK37">
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1115</v>
       </c>
       <c r="B38">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AS38">
+      <c r="AJ38">
         <v>1094</v>
       </c>
-      <c r="AT38">
+      <c r="AK38">
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1104</v>
       </c>
       <c r="B39">
         <v>0.23300000000000001</v>
       </c>
-      <c r="AS39">
+      <c r="AJ39">
         <v>1405</v>
       </c>
-      <c r="AT39">
+      <c r="AK39">
         <v>0.23</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1094</v>
       </c>
       <c r="B40">
         <v>0.23200000000000001</v>
       </c>
-      <c r="AS40">
+      <c r="AJ40">
         <v>1397</v>
       </c>
-      <c r="AT40">
+      <c r="AK40">
         <v>0.23</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1084</v>
       </c>
       <c r="B41">
         <v>0.23300000000000001</v>
       </c>
-      <c r="AS41">
+      <c r="AJ41">
         <v>1046</v>
       </c>
-      <c r="AT41">
+      <c r="AK41">
         <v>0.23</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1068</v>
       </c>
       <c r="B42">
         <v>0.23300000000000001</v>
       </c>
-      <c r="AS42">
+      <c r="AJ42">
         <v>1475</v>
       </c>
-      <c r="AT42">
+      <c r="AK42">
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1046</v>
       </c>
       <c r="B43">
         <v>0.23</v>
       </c>
-      <c r="AS43">
+      <c r="AJ43">
         <v>1485</v>
       </c>
-      <c r="AT43">
+      <c r="AK43">
         <v>0.222</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1022</v>
       </c>
       <c r="B44">
         <v>0.22</v>
       </c>
-      <c r="AS44">
+      <c r="AJ44">
         <v>1022</v>
       </c>
-      <c r="AT44">
+      <c r="AK44">
         <v>0.22</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>998</v>
       </c>
@@ -10718,7 +10448,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>944</v>
       </c>
@@ -10726,7 +10456,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>891</v>
       </c>
@@ -10734,7 +10464,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>800</v>
       </c>
@@ -11831,75 +11561,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332DE154-4BD9-4D1C-8226-453DA61FD850}">
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1453</v>
       </c>
       <c r="B1">
         <v>1.6E-2</v>
       </c>
-      <c r="T1" s="1">
+      <c r="P1" s="1">
         <v>1253</v>
       </c>
-      <c r="U1">
+      <c r="Q1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AA1" s="1">
         <v>-166</v>
       </c>
-      <c r="AH1">
+      <c r="AB1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1423</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
-      <c r="T2">
+      <c r="P2">
         <v>1276</v>
       </c>
-      <c r="U2">
+      <c r="Q2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AG2">
+      <c r="AA2">
         <v>-136</v>
       </c>
-      <c r="AH2">
+      <c r="AB2">
         <v>0.248</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1395</v>
       </c>
       <c r="B3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T3">
+      <c r="P3">
         <v>1244</v>
       </c>
-      <c r="U3">
+      <c r="Q3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AG3">
+      <c r="AA3">
         <v>-280</v>
       </c>
-      <c r="AH3">
+      <c r="AB3">
         <v>0.248</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1373</v>
       </c>
@@ -11910,20 +11640,20 @@
       <c r="C4">
         <v>6.2</v>
       </c>
-      <c r="T4">
+      <c r="P4">
         <v>1238</v>
       </c>
-      <c r="U4">
+      <c r="Q4">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AG4">
+      <c r="AA4">
         <v>-329</v>
       </c>
-      <c r="AH4">
+      <c r="AB4">
         <v>0.246</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1335</v>
       </c>
@@ -11934,20 +11664,20 @@
       <c r="C5">
         <v>3.1</v>
       </c>
-      <c r="T5">
+      <c r="P5">
         <v>1296</v>
       </c>
-      <c r="U5">
+      <c r="Q5">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AG5">
+      <c r="AA5">
         <v>-72</v>
       </c>
-      <c r="AH5">
+      <c r="AB5">
         <v>0.245</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1317</v>
       </c>
@@ -11958,20 +11688,20 @@
       <c r="C6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T6">
+      <c r="P6">
         <v>1228</v>
       </c>
-      <c r="U6">
+      <c r="Q6">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AG6">
+      <c r="AA6">
         <v>-378</v>
       </c>
-      <c r="AH6">
+      <c r="AB6">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1296</v>
       </c>
@@ -11982,20 +11712,20 @@
       <c r="C7">
         <v>1.6</v>
       </c>
-      <c r="T7">
+      <c r="P7">
         <v>1219</v>
       </c>
-      <c r="U7">
+      <c r="Q7">
         <v>1.9E-3</v>
       </c>
-      <c r="AG7">
+      <c r="AA7">
         <v>35</v>
       </c>
-      <c r="AH7">
+      <c r="AB7">
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1276</v>
       </c>
@@ -12006,20 +11736,20 @@
       <c r="C8">
         <v>1.2</v>
       </c>
-      <c r="T8">
+      <c r="P8">
         <v>1317</v>
       </c>
-      <c r="U8">
+      <c r="Q8">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AG8">
+      <c r="AA8">
         <v>-419</v>
       </c>
-      <c r="AH8">
+      <c r="AB8">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1253</v>
       </c>
@@ -12030,20 +11760,20 @@
       <c r="C9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T9">
+      <c r="P9">
         <v>1207</v>
       </c>
-      <c r="U9">
+      <c r="Q9">
         <v>2.3E-3</v>
       </c>
-      <c r="AG9">
+      <c r="AA9">
         <v>85</v>
       </c>
-      <c r="AH9">
+      <c r="AB9">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1244</v>
       </c>
@@ -12054,20 +11784,20 @@
       <c r="C10">
         <v>1.2</v>
       </c>
-      <c r="T10">
+      <c r="P10">
         <v>1198</v>
       </c>
-      <c r="U10">
+      <c r="Q10">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="AG10">
+      <c r="AA10">
         <v>-30</v>
       </c>
-      <c r="AH10">
+      <c r="AB10">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1238</v>
       </c>
@@ -12078,20 +11808,20 @@
       <c r="C11">
         <v>1.3</v>
       </c>
-      <c r="T11">
+      <c r="P11">
         <v>1335</v>
       </c>
-      <c r="U11">
+      <c r="Q11">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AG11">
+      <c r="AA11">
         <v>-457</v>
       </c>
-      <c r="AH11">
+      <c r="AB11">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1228</v>
       </c>
@@ -12102,20 +11832,20 @@
       <c r="C12">
         <v>1.6</v>
       </c>
-      <c r="T12">
+      <c r="P12">
         <v>1178</v>
       </c>
-      <c r="U12">
+      <c r="Q12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AG12">
+      <c r="AA12">
         <v>-477</v>
       </c>
-      <c r="AH12">
+      <c r="AB12">
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1219</v>
       </c>
@@ -12126,20 +11856,20 @@
       <c r="C13">
         <v>1.9</v>
       </c>
-      <c r="T13">
+      <c r="P13">
         <v>1373</v>
       </c>
-      <c r="U13">
+      <c r="Q13">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="AG13">
+      <c r="AA13">
         <v>177</v>
       </c>
-      <c r="AH13">
+      <c r="AB13">
         <v>0.224</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1207</v>
       </c>
@@ -12150,20 +11880,20 @@
       <c r="C14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T14">
+      <c r="P14">
         <v>1147</v>
       </c>
-      <c r="U14">
+      <c r="Q14">
         <v>6.6E-3</v>
       </c>
-      <c r="AG14">
+      <c r="AA14">
         <v>-559</v>
       </c>
-      <c r="AH14">
+      <c r="AB14">
         <v>0.215</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1198</v>
       </c>
@@ -12174,20 +11904,20 @@
       <c r="C15">
         <v>2.7</v>
       </c>
-      <c r="T15">
+      <c r="P15">
         <v>1395</v>
       </c>
-      <c r="U15">
+      <c r="Q15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AG15">
+      <c r="AA15">
         <v>256</v>
       </c>
-      <c r="AH15">
+      <c r="AB15">
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1178</v>
       </c>
@@ -12198,20 +11928,20 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="T16">
+      <c r="P16">
         <v>1112</v>
       </c>
-      <c r="U16">
+      <c r="Q16">
         <v>1.03E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AA16">
         <v>-592</v>
       </c>
-      <c r="AH16">
+      <c r="AB16">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1147</v>
       </c>
@@ -12222,20 +11952,20 @@
       <c r="C17">
         <v>6.6</v>
       </c>
-      <c r="T17">
+      <c r="P17">
         <v>1423</v>
       </c>
-      <c r="U17">
+      <c r="Q17">
         <v>1.2E-2</v>
       </c>
-      <c r="AG17">
+      <c r="AA17">
         <v>310</v>
       </c>
-      <c r="AH17">
+      <c r="AB17">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1112</v>
       </c>
@@ -12246,20 +11976,20 @@
       <c r="C18">
         <v>10.3</v>
       </c>
-      <c r="T18">
+      <c r="P18">
         <v>1067</v>
       </c>
-      <c r="U18">
+      <c r="Q18">
         <v>1.55E-2</v>
       </c>
-      <c r="AG18">
+      <c r="AA18">
         <v>-638</v>
       </c>
-      <c r="AH18">
+      <c r="AB18">
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1067</v>
       </c>
@@ -12270,20 +12000,20 @@
       <c r="C19">
         <v>15.5</v>
       </c>
-      <c r="T19">
+      <c r="P19">
         <v>1453</v>
       </c>
-      <c r="U19">
+      <c r="Q19">
         <v>1.6E-2</v>
       </c>
-      <c r="AG19">
+      <c r="AA19">
         <v>380</v>
       </c>
-      <c r="AH19">
+      <c r="AB19">
         <v>0.188</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1021</v>
       </c>
@@ -12294,20 +12024,20 @@
       <c r="C20">
         <v>22.6</v>
       </c>
-      <c r="T20">
+      <c r="P20">
         <v>1021</v>
       </c>
-      <c r="U20">
+      <c r="Q20">
         <v>2.2600000000000002E-2</v>
       </c>
-      <c r="AG20">
+      <c r="AA20">
         <v>426</v>
       </c>
-      <c r="AH20">
+      <c r="AB20">
         <v>0.1812</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>963</v>
       </c>
@@ -12318,14 +12048,14 @@
       <c r="C21">
         <v>32.5</v>
       </c>
-      <c r="AG21">
+      <c r="AA21">
         <v>472</v>
       </c>
-      <c r="AH21">
+      <c r="AB21">
         <v>0.1678</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>922</v>
       </c>
@@ -12336,14 +12066,14 @@
       <c r="C22">
         <v>40.4</v>
       </c>
-      <c r="AG22">
+      <c r="AA22">
         <v>530</v>
       </c>
-      <c r="AH22">
+      <c r="AB22">
         <v>0.15009999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>875</v>
       </c>
@@ -12354,14 +12084,14 @@
       <c r="C23">
         <v>50.3</v>
       </c>
-      <c r="AG23">
+      <c r="AA23">
         <v>601</v>
       </c>
-      <c r="AH23">
+      <c r="AB23">
         <v>0.12690000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>788</v>
       </c>
@@ -12372,14 +12102,14 @@
       <c r="C24">
         <v>70.5</v>
       </c>
-      <c r="AG24">
+      <c r="AA24">
         <v>663</v>
       </c>
-      <c r="AH24">
+      <c r="AB24">
         <v>0.1065</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>734</v>
       </c>
@@ -12390,14 +12120,14 @@
       <c r="C25">
         <v>83.7</v>
       </c>
-      <c r="AG25">
+      <c r="AA25">
         <v>734</v>
       </c>
-      <c r="AH25">
+      <c r="AB25">
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>663</v>
       </c>
@@ -12408,17 +12138,14 @@
       <c r="C26">
         <v>106.5</v>
       </c>
+      <c r="AA26">
+        <v>788</v>
+      </c>
       <c r="AB26">
-        <v>1253</v>
-      </c>
-      <c r="AG26">
-        <v>788</v>
-      </c>
-      <c r="AH26">
         <v>7.0499999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>601</v>
       </c>
@@ -12429,17 +12156,14 @@
       <c r="C27">
         <v>126.9</v>
       </c>
+      <c r="AA27">
+        <v>875</v>
+      </c>
       <c r="AB27">
-        <v>166</v>
-      </c>
-      <c r="AG27">
-        <v>875</v>
-      </c>
-      <c r="AH27">
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>530</v>
       </c>
@@ -12450,14 +12174,14 @@
       <c r="C28">
         <v>150.1</v>
       </c>
-      <c r="AG28">
+      <c r="AA28">
         <v>922</v>
       </c>
-      <c r="AH28">
+      <c r="AB28">
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>472</v>
       </c>
@@ -12468,14 +12192,14 @@
       <c r="C29">
         <v>167.8</v>
       </c>
-      <c r="AG29">
+      <c r="AA29">
         <v>963</v>
       </c>
-      <c r="AH29">
+      <c r="AB29">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>426</v>
       </c>
@@ -12487,7 +12211,7 @@
         <v>181.2</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>380</v>
       </c>
@@ -12499,7 +12223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>310</v>
       </c>
